--- a/Output/AcqTrends/Customer/Navy/Navy_Contracts.xlsx
+++ b/Output/AcqTrends/Customer/Navy/Navy_Contracts.xlsx
@@ -8,12 +8,14 @@
   <sheets>
     <sheet name="PSR" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Plat" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="FYQ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Veh" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -167,19 +169,60 @@
   <si>
     <t xml:space="preserve">Space Systems</t>
   </si>
+  <si>
+    <t xml:space="preserve">Vehicle.AwardTask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle.sum7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Award</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pur. Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOA or BPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSS or GWAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Awd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single-Awd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlbd. IDV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,8 +245,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4265,4 +4310,3398 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="n">
+        <v>26385830441.9697</v>
+      </c>
+      <c r="Z2" s="1" t="n">
+        <v>27342411636.8908</v>
+      </c>
+      <c r="AA2" s="1" t="n">
+        <v>29055823534.2043</v>
+      </c>
+      <c r="AB2" s="1" t="n">
+        <v>35527786369.658</v>
+      </c>
+      <c r="AC2" s="1" t="n">
+        <v>37134338745.6798</v>
+      </c>
+      <c r="AD2" s="1" t="n">
+        <v>38848120946.3065</v>
+      </c>
+      <c r="AE2" s="1" t="n">
+        <v>43883999778.658</v>
+      </c>
+      <c r="AF2" s="1" t="n">
+        <v>48667855249.6562</v>
+      </c>
+      <c r="AG2" s="1" t="n">
+        <v>53919233843.6064</v>
+      </c>
+      <c r="AH2" s="1" t="n">
+        <v>58380172208.2495</v>
+      </c>
+      <c r="AI2" s="1" t="n">
+        <v>49246943878.9941</v>
+      </c>
+      <c r="AJ2" s="1" t="n">
+        <v>64004511861.0444</v>
+      </c>
+      <c r="AK2" s="1" t="n">
+        <v>58229022090.8932</v>
+      </c>
+      <c r="AL2" s="1" t="n">
+        <v>63249227691.4751</v>
+      </c>
+      <c r="AM2" s="1" t="n">
+        <v>51876157872.7767</v>
+      </c>
+      <c r="AN2" s="1" t="n">
+        <v>53965926310.2549</v>
+      </c>
+      <c r="AO2" s="1" t="n">
+        <v>59474374349.0905</v>
+      </c>
+      <c r="AP2" s="1" t="n">
+        <v>74505260328.3152</v>
+      </c>
+      <c r="AQ2" s="1" t="n">
+        <v>67651935549.6634</v>
+      </c>
+      <c r="AR2" s="1" t="n">
+        <v>79319765735.0487</v>
+      </c>
+      <c r="AS2" s="1" t="n">
+        <v>103704495193.904</v>
+      </c>
+      <c r="AT2" s="1" t="n">
+        <v>64705953588.2263</v>
+      </c>
+      <c r="AU2" s="1" t="n">
+        <v>74274785811.3853</v>
+      </c>
+      <c r="AV2" s="1" t="n">
+        <v>52277429982.029</v>
+      </c>
+      <c r="AW2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="n">
+        <v>600479792</v>
+      </c>
+      <c r="Z3" s="1" t="n">
+        <v>656370281.4492</v>
+      </c>
+      <c r="AA3" s="1" t="n">
+        <v>841452263.4247</v>
+      </c>
+      <c r="AB3" s="1" t="n">
+        <v>1101277305.4612</v>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>1222363308.256</v>
+      </c>
+      <c r="AD3" s="1" t="n">
+        <v>1689218142.1243</v>
+      </c>
+      <c r="AE3" s="1" t="n">
+        <v>1582550638.2089</v>
+      </c>
+      <c r="AF3" s="1" t="n">
+        <v>1660068401.765</v>
+      </c>
+      <c r="AG3" s="1" t="n">
+        <v>1744751662.3427</v>
+      </c>
+      <c r="AH3" s="1" t="n">
+        <v>1675960357.3446</v>
+      </c>
+      <c r="AI3" s="1" t="n">
+        <v>1694548308.7933</v>
+      </c>
+      <c r="AJ3" s="1" t="n">
+        <v>1758429194.3475</v>
+      </c>
+      <c r="AK3" s="1" t="n">
+        <v>1391187644.8305</v>
+      </c>
+      <c r="AL3" s="1" t="n">
+        <v>1318729027.2788</v>
+      </c>
+      <c r="AM3" s="1" t="n">
+        <v>1521540335.0792</v>
+      </c>
+      <c r="AN3" s="1" t="n">
+        <v>1544560035.7702</v>
+      </c>
+      <c r="AO3" s="1" t="n">
+        <v>1676601800.8415</v>
+      </c>
+      <c r="AP3" s="1" t="n">
+        <v>1750648807.8739</v>
+      </c>
+      <c r="AQ3" s="1" t="n">
+        <v>1892537321.0956</v>
+      </c>
+      <c r="AR3" s="1" t="n">
+        <v>1963223245.4129</v>
+      </c>
+      <c r="AS3" s="1" t="n">
+        <v>1930248875.2409</v>
+      </c>
+      <c r="AT3" s="1" t="n">
+        <v>1945142067.2073</v>
+      </c>
+      <c r="AU3" s="1" t="n">
+        <v>2132661315.8257</v>
+      </c>
+      <c r="AV3" s="1" t="n">
+        <v>829251161.9392</v>
+      </c>
+      <c r="AW3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1" t="n">
+        <v>16487268</v>
+      </c>
+      <c r="Z4" s="1" t="n">
+        <v>11146809</v>
+      </c>
+      <c r="AA4" s="1" t="n">
+        <v>8694363</v>
+      </c>
+      <c r="AB4" s="1" t="n">
+        <v>1941170.7003</v>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>4182207</v>
+      </c>
+      <c r="AD4" s="1" t="n">
+        <v>3062250</v>
+      </c>
+      <c r="AE4" s="1" t="n">
+        <v>4351859.75</v>
+      </c>
+      <c r="AF4" s="1" t="n">
+        <v>3664592.0728</v>
+      </c>
+      <c r="AG4" s="1" t="n">
+        <v>880976.0977</v>
+      </c>
+      <c r="AH4" s="1" t="n">
+        <v>3109070.9192</v>
+      </c>
+      <c r="AI4" s="1" t="n">
+        <v>240339667.0147</v>
+      </c>
+      <c r="AJ4" s="1" t="n">
+        <v>1110377805.2165</v>
+      </c>
+      <c r="AK4" s="1" t="n">
+        <v>2064006447.3532</v>
+      </c>
+      <c r="AL4" s="1" t="n">
+        <v>2593204388.1938</v>
+      </c>
+      <c r="AM4" s="1" t="n">
+        <v>3261933622.709</v>
+      </c>
+      <c r="AN4" s="1" t="n">
+        <v>3953034131.9917</v>
+      </c>
+      <c r="AO4" s="1" t="n">
+        <v>4732280611.7867</v>
+      </c>
+      <c r="AP4" s="1" t="n">
+        <v>5856950269.2099</v>
+      </c>
+      <c r="AQ4" s="1" t="n">
+        <v>7334131891.9943</v>
+      </c>
+      <c r="AR4" s="1" t="n">
+        <v>5044390678.1495</v>
+      </c>
+      <c r="AS4" s="1" t="n">
+        <v>5930103246.1628</v>
+      </c>
+      <c r="AT4" s="1" t="n">
+        <v>7026470054.8162</v>
+      </c>
+      <c r="AU4" s="1" t="n">
+        <v>8617374531.2627</v>
+      </c>
+      <c r="AV4" s="1" t="n">
+        <v>3501052372.4988</v>
+      </c>
+      <c r="AW4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1" t="n">
+        <v>1488993837</v>
+      </c>
+      <c r="Z5" s="1" t="n">
+        <v>1579451964.2822</v>
+      </c>
+      <c r="AA5" s="1" t="n">
+        <v>2317490424.2247</v>
+      </c>
+      <c r="AB5" s="1" t="n">
+        <v>2188113376.9121</v>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>2464196668.5194</v>
+      </c>
+      <c r="AD5" s="1" t="n">
+        <v>2487195906.6686</v>
+      </c>
+      <c r="AE5" s="1" t="n">
+        <v>2739366743.2806</v>
+      </c>
+      <c r="AF5" s="1" t="n">
+        <v>2957226264.9291</v>
+      </c>
+      <c r="AG5" s="1" t="n">
+        <v>2608234555.101</v>
+      </c>
+      <c r="AH5" s="1" t="n">
+        <v>2417141160.6679</v>
+      </c>
+      <c r="AI5" s="1" t="n">
+        <v>2000507429.6483</v>
+      </c>
+      <c r="AJ5" s="1" t="n">
+        <v>1915010398.5023</v>
+      </c>
+      <c r="AK5" s="1" t="n">
+        <v>1497995502.5304</v>
+      </c>
+      <c r="AL5" s="1" t="n">
+        <v>1180544202.4889</v>
+      </c>
+      <c r="AM5" s="1" t="n">
+        <v>1042419193.8907</v>
+      </c>
+      <c r="AN5" s="1" t="n">
+        <v>965431735.9285</v>
+      </c>
+      <c r="AO5" s="1" t="n">
+        <v>1054843031.0331</v>
+      </c>
+      <c r="AP5" s="1" t="n">
+        <v>1065291949.6307</v>
+      </c>
+      <c r="AQ5" s="1" t="n">
+        <v>1208269675.847</v>
+      </c>
+      <c r="AR5" s="1" t="n">
+        <v>1401905556.9774</v>
+      </c>
+      <c r="AS5" s="1" t="n">
+        <v>1474076768.7371</v>
+      </c>
+      <c r="AT5" s="1" t="n">
+        <v>1586007492.9405</v>
+      </c>
+      <c r="AU5" s="1" t="n">
+        <v>1528965912.55</v>
+      </c>
+      <c r="AV5" s="1" t="n">
+        <v>545520483.0375</v>
+      </c>
+      <c r="AW5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1" t="n">
+        <v>1256853160</v>
+      </c>
+      <c r="Z6" s="1" t="n">
+        <v>1723664398</v>
+      </c>
+      <c r="AA6" s="1" t="n">
+        <v>2477389942.8438</v>
+      </c>
+      <c r="AB6" s="1" t="n">
+        <v>3245367049.981</v>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>3451017394.1973</v>
+      </c>
+      <c r="AD6" s="1" t="n">
+        <v>4894191722.7048</v>
+      </c>
+      <c r="AE6" s="1" t="n">
+        <v>6141228266.3682</v>
+      </c>
+      <c r="AF6" s="1" t="n">
+        <v>7457292922.0604</v>
+      </c>
+      <c r="AG6" s="1" t="n">
+        <v>9012208884.6387</v>
+      </c>
+      <c r="AH6" s="1" t="n">
+        <v>10639522071.7194</v>
+      </c>
+      <c r="AI6" s="1" t="n">
+        <v>11962292325.4404</v>
+      </c>
+      <c r="AJ6" s="1" t="n">
+        <v>12462183529.3221</v>
+      </c>
+      <c r="AK6" s="1" t="n">
+        <v>11780161587.3851</v>
+      </c>
+      <c r="AL6" s="1" t="n">
+        <v>10462799981.9558</v>
+      </c>
+      <c r="AM6" s="1" t="n">
+        <v>12304294494.2867</v>
+      </c>
+      <c r="AN6" s="1" t="n">
+        <v>11140246342.4732</v>
+      </c>
+      <c r="AO6" s="1" t="n">
+        <v>11846369088.0075</v>
+      </c>
+      <c r="AP6" s="1" t="n">
+        <v>11607597967.4547</v>
+      </c>
+      <c r="AQ6" s="1" t="n">
+        <v>14152219451.9582</v>
+      </c>
+      <c r="AR6" s="1" t="n">
+        <v>15236683692.8041</v>
+      </c>
+      <c r="AS6" s="1" t="n">
+        <v>16655019237.0216</v>
+      </c>
+      <c r="AT6" s="1" t="n">
+        <v>16399758166.4921</v>
+      </c>
+      <c r="AU6" s="1" t="n">
+        <v>16673271887.5319</v>
+      </c>
+      <c r="AV6" s="1" t="n">
+        <v>7448186593.0997</v>
+      </c>
+      <c r="AW6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1" t="n">
+        <v>10480888998.9896</v>
+      </c>
+      <c r="Z7" s="1" t="n">
+        <v>10825263907.219</v>
+      </c>
+      <c r="AA7" s="1" t="n">
+        <v>13057319166.3883</v>
+      </c>
+      <c r="AB7" s="1" t="n">
+        <v>14789408947.7599</v>
+      </c>
+      <c r="AC7" s="1" t="n">
+        <v>16529930744.8791</v>
+      </c>
+      <c r="AD7" s="1" t="n">
+        <v>17641035489.7443</v>
+      </c>
+      <c r="AE7" s="1" t="n">
+        <v>20596802258.3182</v>
+      </c>
+      <c r="AF7" s="1" t="n">
+        <v>25039602974.6801</v>
+      </c>
+      <c r="AG7" s="1" t="n">
+        <v>29140239707.8975</v>
+      </c>
+      <c r="AH7" s="1" t="n">
+        <v>22636138419.9464</v>
+      </c>
+      <c r="AI7" s="1" t="n">
+        <v>22760548689.5869</v>
+      </c>
+      <c r="AJ7" s="1" t="n">
+        <v>22608676465.5327</v>
+      </c>
+      <c r="AK7" s="1" t="n">
+        <v>19450175578.8074</v>
+      </c>
+      <c r="AL7" s="1" t="n">
+        <v>15056757524.5757</v>
+      </c>
+      <c r="AM7" s="1" t="n">
+        <v>13984093543.4614</v>
+      </c>
+      <c r="AN7" s="1" t="n">
+        <v>13215178222.5736</v>
+      </c>
+      <c r="AO7" s="1" t="n">
+        <v>14174080804.8399</v>
+      </c>
+      <c r="AP7" s="1" t="n">
+        <v>14638683688.5154</v>
+      </c>
+      <c r="AQ7" s="1" t="n">
+        <v>16007688476.1106</v>
+      </c>
+      <c r="AR7" s="1" t="n">
+        <v>19030766197.7843</v>
+      </c>
+      <c r="AS7" s="1" t="n">
+        <v>20608354746.9353</v>
+      </c>
+      <c r="AT7" s="1" t="n">
+        <v>19992195522.4055</v>
+      </c>
+      <c r="AU7" s="1" t="n">
+        <v>20643216645.7452</v>
+      </c>
+      <c r="AV7" s="1" t="n">
+        <v>10124475689.8586</v>
+      </c>
+      <c r="AW7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1" t="n">
+        <v>247041481</v>
+      </c>
+      <c r="Z8" s="1" t="n">
+        <v>70937972</v>
+      </c>
+      <c r="AA8" s="1" t="n">
+        <v>36382919</v>
+      </c>
+      <c r="AB8" s="1" t="n">
+        <v>5593105</v>
+      </c>
+      <c r="AC8" s="1" t="n">
+        <v>14308786</v>
+      </c>
+      <c r="AD8" s="1" t="n">
+        <v>19985979</v>
+      </c>
+      <c r="AE8" s="1" t="n">
+        <v>10568670.6299</v>
+      </c>
+      <c r="AF8" s="1" t="n">
+        <v>1606605.7345</v>
+      </c>
+      <c r="AG8" s="1" t="n">
+        <v>2051059.2507</v>
+      </c>
+      <c r="AH8" s="1" t="n">
+        <v>2256587.7115</v>
+      </c>
+      <c r="AI8" s="1" t="n">
+        <v>184473982.869</v>
+      </c>
+      <c r="AJ8" s="1" t="n">
+        <v>189695451.7651</v>
+      </c>
+      <c r="AK8" s="1" t="n">
+        <v>199736144.9853</v>
+      </c>
+      <c r="AL8" s="1" t="n">
+        <v>137122590.1291</v>
+      </c>
+      <c r="AM8" s="1" t="n">
+        <v>137726328.8782</v>
+      </c>
+      <c r="AN8" s="1" t="n">
+        <v>100785073.0274</v>
+      </c>
+      <c r="AO8" s="1" t="n">
+        <v>16006550.9706</v>
+      </c>
+      <c r="AP8" s="1" t="n">
+        <v>41693024.4511</v>
+      </c>
+      <c r="AQ8" s="1" t="n">
+        <v>6549</v>
+      </c>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1" t="n">
+        <v>10156</v>
+      </c>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9" s="1" t="n">
+        <v>43985137405</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>41939949844</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>40644252613</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>37382740962</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>40131281740</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>38631559907</v>
+      </c>
+      <c r="U9" s="1" t="n">
+        <v>35472291538</v>
+      </c>
+      <c r="V9" s="1" t="n">
+        <v>36315651254</v>
+      </c>
+      <c r="W9" s="1" t="n">
+        <v>37912327660</v>
+      </c>
+      <c r="X9" s="1" t="n">
+        <v>37471174500</v>
+      </c>
+      <c r="Y9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1" t="n">
+        <v>40775</v>
+      </c>
+      <c r="AC9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1"/>
+    </row>
+    <row r="13">
+      <c r="M13" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="M14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1" t="n">
+        <v>42632379133.2046</v>
+      </c>
+      <c r="Z14" s="1" t="n">
+        <v>43132029304.2167</v>
+      </c>
+      <c r="AA14" s="1" t="n">
+        <v>45122701413.8409</v>
+      </c>
+      <c r="AB14" s="1" t="n">
+        <v>54138602851.7214</v>
+      </c>
+      <c r="AC14" s="1" t="n">
+        <v>55236561268.6113</v>
+      </c>
+      <c r="AD14" s="1" t="n">
+        <v>56083272628.4563</v>
+      </c>
+      <c r="AE14" s="1" t="n">
+        <v>61355746522.5791</v>
+      </c>
+      <c r="AF14" s="1" t="n">
+        <v>66228042047.8395</v>
+      </c>
+      <c r="AG14" s="1" t="n">
+        <v>71875189108.9242</v>
+      </c>
+      <c r="AH14" s="1" t="n">
+        <v>77038825219.6145</v>
+      </c>
+      <c r="AI14" s="1" t="n">
+        <v>64426216915.0818</v>
+      </c>
+      <c r="AJ14" s="1" t="n">
+        <v>82078290987.5106</v>
+      </c>
+      <c r="AK14" s="1" t="n">
+        <v>73327807505.0709</v>
+      </c>
+      <c r="AL14" s="1" t="n">
+        <v>78218356473.0091</v>
+      </c>
+      <c r="AM14" s="1" t="n">
+        <v>62936074781.0395</v>
+      </c>
+      <c r="AN14" s="1" t="n">
+        <v>64729299017.8152</v>
+      </c>
+      <c r="AO14" s="1" t="n">
+        <v>70750122481.4862</v>
+      </c>
+      <c r="AP14" s="1" t="n">
+        <v>87076078309.2733</v>
+      </c>
+      <c r="AQ14" s="1" t="n">
+        <v>77252523058.4943</v>
+      </c>
+      <c r="AR14" s="1" t="n">
+        <v>88836162404.4852</v>
+      </c>
+      <c r="AS14" s="1" t="n">
+        <v>114617404659.428</v>
+      </c>
+      <c r="AT14" s="1" t="n">
+        <v>69189273489.6376</v>
+      </c>
+      <c r="AU14" s="1" t="n">
+        <v>74274785811.3853</v>
+      </c>
+      <c r="AV14" s="1" t="n">
+        <v>49862127997.9026</v>
+      </c>
+      <c r="AW14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1" t="n">
+        <v>970213244.213542</v>
+      </c>
+      <c r="Z15" s="1" t="n">
+        <v>1035409114.23068</v>
+      </c>
+      <c r="AA15" s="1" t="n">
+        <v>1306746621.44121</v>
+      </c>
+      <c r="AB15" s="1" t="n">
+        <v>1678168576.26955</v>
+      </c>
+      <c r="AC15" s="1" t="n">
+        <v>1818240153.17467</v>
+      </c>
+      <c r="AD15" s="1" t="n">
+        <v>2438647720.55851</v>
+      </c>
+      <c r="AE15" s="1" t="n">
+        <v>2212619093.67507</v>
+      </c>
+      <c r="AF15" s="1" t="n">
+        <v>2259049209.18328</v>
+      </c>
+      <c r="AG15" s="1" t="n">
+        <v>2325781483.51901</v>
+      </c>
+      <c r="AH15" s="1" t="n">
+        <v>2211607334.48862</v>
+      </c>
+      <c r="AI15" s="1" t="n">
+        <v>2216855063.81177</v>
+      </c>
+      <c r="AJ15" s="1" t="n">
+        <v>2254979514.69312</v>
+      </c>
+      <c r="AK15" s="1" t="n">
+        <v>1751922600.80078</v>
+      </c>
+      <c r="AL15" s="1" t="n">
+        <v>1630831251.41306</v>
+      </c>
+      <c r="AM15" s="1" t="n">
+        <v>1845930389.55887</v>
+      </c>
+      <c r="AN15" s="1" t="n">
+        <v>1852618777.10674</v>
+      </c>
+      <c r="AO15" s="1" t="n">
+        <v>1994468778.53589</v>
+      </c>
+      <c r="AP15" s="1" t="n">
+        <v>2046025099.63354</v>
+      </c>
+      <c r="AQ15" s="1" t="n">
+        <v>2161110127.13998</v>
+      </c>
+      <c r="AR15" s="1" t="n">
+        <v>2198761146.72761</v>
+      </c>
+      <c r="AS15" s="1" t="n">
+        <v>2133370554.6054</v>
+      </c>
+      <c r="AT15" s="1" t="n">
+        <v>2079916282.83017</v>
+      </c>
+      <c r="AU15" s="1" t="n">
+        <v>2132661315.8257</v>
+      </c>
+      <c r="AV15" s="1" t="n">
+        <v>790938414.402465</v>
+      </c>
+      <c r="AW15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1" t="n">
+        <v>26638974.3461977</v>
+      </c>
+      <c r="Z16" s="1" t="n">
+        <v>17583836.379225</v>
+      </c>
+      <c r="AA16" s="1" t="n">
+        <v>13502048.7431966</v>
+      </c>
+      <c r="AB16" s="1" t="n">
+        <v>2958030.3292043</v>
+      </c>
+      <c r="AC16" s="1" t="n">
+        <v>6220946.46078465</v>
+      </c>
+      <c r="AD16" s="1" t="n">
+        <v>4420831.62384766</v>
+      </c>
+      <c r="AE16" s="1" t="n">
+        <v>6084486.4886876</v>
+      </c>
+      <c r="AF16" s="1" t="n">
+        <v>4986838.98521072</v>
+      </c>
+      <c r="AG16" s="1" t="n">
+        <v>1174355.03268261</v>
+      </c>
+      <c r="AH16" s="1" t="n">
+        <v>4102748.62302974</v>
+      </c>
+      <c r="AI16" s="1" t="n">
+        <v>314419013.663754</v>
+      </c>
+      <c r="AJ16" s="1" t="n">
+        <v>1423929500.47797</v>
+      </c>
+      <c r="AK16" s="1" t="n">
+        <v>2599203318.65596</v>
+      </c>
+      <c r="AL16" s="1" t="n">
+        <v>3206935367.37766</v>
+      </c>
+      <c r="AM16" s="1" t="n">
+        <v>3957372843.86154</v>
+      </c>
+      <c r="AN16" s="1" t="n">
+        <v>4741457172.18417</v>
+      </c>
+      <c r="AO16" s="1" t="n">
+        <v>5629473812.29226</v>
+      </c>
+      <c r="AP16" s="1" t="n">
+        <v>6845157751.92076</v>
+      </c>
+      <c r="AQ16" s="1" t="n">
+        <v>8374929534.49056</v>
+      </c>
+      <c r="AR16" s="1" t="n">
+        <v>5649591944.24032</v>
+      </c>
+      <c r="AS16" s="1" t="n">
+        <v>6554132896.23326</v>
+      </c>
+      <c r="AT16" s="1" t="n">
+        <v>7513317265.722</v>
+      </c>
+      <c r="AU16" s="1" t="n">
+        <v>8617374531.2627</v>
+      </c>
+      <c r="AV16" s="1" t="n">
+        <v>3339298079.20754</v>
+      </c>
+      <c r="AW16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1" t="n">
+        <v>2405812086.362</v>
+      </c>
+      <c r="Z17" s="1" t="n">
+        <v>2491549367.06853</v>
+      </c>
+      <c r="AA17" s="1" t="n">
+        <v>3598983464.31743</v>
+      </c>
+      <c r="AB17" s="1" t="n">
+        <v>3334331046.53977</v>
+      </c>
+      <c r="AC17" s="1" t="n">
+        <v>3665441606.23879</v>
+      </c>
+      <c r="AD17" s="1" t="n">
+        <v>3590652075.73026</v>
+      </c>
+      <c r="AE17" s="1" t="n">
+        <v>3830003928.10246</v>
+      </c>
+      <c r="AF17" s="1" t="n">
+        <v>4024243608.31235</v>
+      </c>
+      <c r="AG17" s="1" t="n">
+        <v>3476817798.11759</v>
+      </c>
+      <c r="AH17" s="1" t="n">
+        <v>3189673965.73587</v>
+      </c>
+      <c r="AI17" s="1" t="n">
+        <v>2617119265.7039</v>
+      </c>
+      <c r="AJ17" s="1" t="n">
+        <v>2455776572.02705</v>
+      </c>
+      <c r="AK17" s="1" t="n">
+        <v>1886425735.9766</v>
+      </c>
+      <c r="AL17" s="1" t="n">
+        <v>1459942368.19538</v>
+      </c>
+      <c r="AM17" s="1" t="n">
+        <v>1264661359.47829</v>
+      </c>
+      <c r="AN17" s="1" t="n">
+        <v>1157984746.83699</v>
+      </c>
+      <c r="AO17" s="1" t="n">
+        <v>1254830747.88285</v>
+      </c>
+      <c r="AP17" s="1" t="n">
+        <v>1245032160.40744</v>
+      </c>
+      <c r="AQ17" s="1" t="n">
+        <v>1379737035.39831</v>
+      </c>
+      <c r="AR17" s="1" t="n">
+        <v>1570099313.59851</v>
+      </c>
+      <c r="AS17" s="1" t="n">
+        <v>1629195081.5198</v>
+      </c>
+      <c r="AT17" s="1" t="n">
+        <v>1695898137.65826</v>
+      </c>
+      <c r="AU17" s="1" t="n">
+        <v>1528965912.55</v>
+      </c>
+      <c r="AV17" s="1" t="n">
+        <v>520316552.66994</v>
+      </c>
+      <c r="AW17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" t="s">
+        <v>59</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1" t="n">
+        <v>2030735418.75934</v>
+      </c>
+      <c r="Z18" s="1" t="n">
+        <v>2719041184.53339</v>
+      </c>
+      <c r="AA18" s="1" t="n">
+        <v>3847301954.63222</v>
+      </c>
+      <c r="AB18" s="1" t="n">
+        <v>4945414724.09432</v>
+      </c>
+      <c r="AC18" s="1" t="n">
+        <v>5133317036.80329</v>
+      </c>
+      <c r="AD18" s="1" t="n">
+        <v>7065522913.18698</v>
+      </c>
+      <c r="AE18" s="1" t="n">
+        <v>8586264851.63354</v>
+      </c>
+      <c r="AF18" s="1" t="n">
+        <v>10148010564.0932</v>
+      </c>
+      <c r="AG18" s="1" t="n">
+        <v>12013416580.6464</v>
+      </c>
+      <c r="AH18" s="1" t="n">
+        <v>14039977106.9466</v>
+      </c>
+      <c r="AI18" s="1" t="n">
+        <v>15649402368.0761</v>
+      </c>
+      <c r="AJ18" s="1" t="n">
+        <v>15981290948.3655</v>
+      </c>
+      <c r="AK18" s="1" t="n">
+        <v>14834757484.1636</v>
+      </c>
+      <c r="AL18" s="1" t="n">
+        <v>12939019946.4003</v>
+      </c>
+      <c r="AM18" s="1" t="n">
+        <v>14927551117.4033</v>
+      </c>
+      <c r="AN18" s="1" t="n">
+        <v>13362141372.1021</v>
+      </c>
+      <c r="AO18" s="1" t="n">
+        <v>14092322502.0902</v>
+      </c>
+      <c r="AP18" s="1" t="n">
+        <v>13566077148.6832</v>
+      </c>
+      <c r="AQ18" s="1" t="n">
+        <v>16160582112.816</v>
+      </c>
+      <c r="AR18" s="1" t="n">
+        <v>17064706312.4346</v>
+      </c>
+      <c r="AS18" s="1" t="n">
+        <v>18407640632.462</v>
+      </c>
+      <c r="AT18" s="1" t="n">
+        <v>17536057967.1884</v>
+      </c>
+      <c r="AU18" s="1" t="n">
+        <v>16673271887.5319</v>
+      </c>
+      <c r="AV18" s="1" t="n">
+        <v>7104068302.23037</v>
+      </c>
+      <c r="AW18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" t="s">
+        <v>60</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1" t="n">
+        <v>16934287303.9626</v>
+      </c>
+      <c r="Z19" s="1" t="n">
+        <v>17076606345.9479</v>
+      </c>
+      <c r="AA19" s="1" t="n">
+        <v>20277570632.84</v>
+      </c>
+      <c r="AB19" s="1" t="n">
+        <v>22536668316.5568</v>
+      </c>
+      <c r="AC19" s="1" t="n">
+        <v>24587930287.6139</v>
+      </c>
+      <c r="AD19" s="1" t="n">
+        <v>25467563905.7818</v>
+      </c>
+      <c r="AE19" s="1" t="n">
+        <v>28797105662.9082</v>
+      </c>
+      <c r="AF19" s="1" t="n">
+        <v>34074315996.903</v>
+      </c>
+      <c r="AG19" s="1" t="n">
+        <v>38844399120.3497</v>
+      </c>
+      <c r="AH19" s="1" t="n">
+        <v>29870783956.5919</v>
+      </c>
+      <c r="AI19" s="1" t="n">
+        <v>29775980629.0655</v>
+      </c>
+      <c r="AJ19" s="1" t="n">
+        <v>28992979898.1861</v>
+      </c>
+      <c r="AK19" s="1" t="n">
+        <v>24493606101.7188</v>
+      </c>
+      <c r="AL19" s="1" t="n">
+        <v>18620224631.5121</v>
+      </c>
+      <c r="AM19" s="1" t="n">
+        <v>16965480734.9986</v>
+      </c>
+      <c r="AN19" s="1" t="n">
+        <v>15850913367.5361</v>
+      </c>
+      <c r="AO19" s="1" t="n">
+        <v>16861345142.0064</v>
+      </c>
+      <c r="AP19" s="1" t="n">
+        <v>17108579469.2729</v>
+      </c>
+      <c r="AQ19" s="1" t="n">
+        <v>18279363525.4695</v>
+      </c>
+      <c r="AR19" s="1" t="n">
+        <v>21313984237.8673</v>
+      </c>
+      <c r="AS19" s="1" t="n">
+        <v>22776988895.0135</v>
+      </c>
+      <c r="AT19" s="1" t="n">
+        <v>21377406667.4092</v>
+      </c>
+      <c r="AU19" s="1" t="n">
+        <v>20643216645.7452</v>
+      </c>
+      <c r="AV19" s="1" t="n">
+        <v>9656708505.61942</v>
+      </c>
+      <c r="AW19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1" t="n">
+        <v>399152344.39118</v>
+      </c>
+      <c r="Z20" s="1" t="n">
+        <v>111903029.173824</v>
+      </c>
+      <c r="AA20" s="1" t="n">
+        <v>56501430.3817053</v>
+      </c>
+      <c r="AB20" s="1" t="n">
+        <v>8522987.81444998</v>
+      </c>
+      <c r="AC20" s="1" t="n">
+        <v>21284023.3935874</v>
+      </c>
+      <c r="AD20" s="1" t="n">
+        <v>28852852.6399723</v>
+      </c>
+      <c r="AE20" s="1" t="n">
+        <v>14776426.0213156</v>
+      </c>
+      <c r="AF20" s="1" t="n">
+        <v>2186296.30570206</v>
+      </c>
+      <c r="AG20" s="1" t="n">
+        <v>2734094.32977601</v>
+      </c>
+      <c r="AH20" s="1" t="n">
+        <v>2977806.67173868</v>
+      </c>
+      <c r="AI20" s="1" t="n">
+        <v>241333977.286187</v>
+      </c>
+      <c r="AJ20" s="1" t="n">
+        <v>243262201.933292</v>
+      </c>
+      <c r="AK20" s="1" t="n">
+        <v>251527727.331997</v>
+      </c>
+      <c r="AL20" s="1" t="n">
+        <v>169575250.587066</v>
+      </c>
+      <c r="AM20" s="1" t="n">
+        <v>167089369.934722</v>
+      </c>
+      <c r="AN20" s="1" t="n">
+        <v>120886410.640249</v>
+      </c>
+      <c r="AO20" s="1" t="n">
+        <v>19041233.3726958</v>
+      </c>
+      <c r="AP20" s="1" t="n">
+        <v>48727634.0765257</v>
+      </c>
+      <c r="AQ20" s="1" t="n">
+        <v>7478.37839966423</v>
+      </c>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1" t="n">
+        <v>11224.7242469541</v>
+      </c>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21" s="1" t="n">
+        <v>87421849051.3779</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <v>80486100094.3418</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>76097691448.0967</v>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>68384784614.2048</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>71847203684.9646</v>
+      </c>
+      <c r="T21" s="1" t="n">
+        <v>67727583713.1553</v>
+      </c>
+      <c r="U21" s="1" t="n">
+        <v>61041618961.5874</v>
+      </c>
+      <c r="V21" s="1" t="n">
+        <v>61402120840.7608</v>
+      </c>
+      <c r="W21" s="1" t="n">
+        <v>63311224260.2988</v>
+      </c>
+      <c r="X21" s="1" t="n">
+        <v>61804125829.0054</v>
+      </c>
+      <c r="Y21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1" t="n">
+        <v>62134.5081371078</v>
+      </c>
+      <c r="AC21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="N1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="N2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="n">
+        <v>26385830441.9697</v>
+      </c>
+      <c r="AA2" s="2" t="n">
+        <v>27342411636.8908</v>
+      </c>
+      <c r="AB2" s="2" t="n">
+        <v>29055823534.2043</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>35527786369.658</v>
+      </c>
+      <c r="AD2" s="2" t="n">
+        <v>37134338745.6798</v>
+      </c>
+      <c r="AE2" s="2" t="n">
+        <v>38848120946.3065</v>
+      </c>
+      <c r="AF2" s="2" t="n">
+        <v>43883999778.658</v>
+      </c>
+      <c r="AG2" s="2" t="n">
+        <v>48667855249.6562</v>
+      </c>
+      <c r="AH2" s="2" t="n">
+        <v>53919233843.6064</v>
+      </c>
+      <c r="AI2" s="2" t="n">
+        <v>58380172208.2495</v>
+      </c>
+      <c r="AJ2" s="2" t="n">
+        <v>49246943878.9941</v>
+      </c>
+      <c r="AK2" s="2" t="n">
+        <v>64004511861.0444</v>
+      </c>
+      <c r="AL2" s="2" t="n">
+        <v>58229022090.8932</v>
+      </c>
+      <c r="AM2" s="2" t="n">
+        <v>63249227691.4751</v>
+      </c>
+      <c r="AN2" s="2" t="n">
+        <v>51876157872.7767</v>
+      </c>
+      <c r="AO2" s="2" t="n">
+        <v>53965926310.2549</v>
+      </c>
+      <c r="AP2" s="2" t="n">
+        <v>59474374349.0905</v>
+      </c>
+      <c r="AQ2" s="2" t="n">
+        <v>74505260328.3152</v>
+      </c>
+      <c r="AR2" s="2" t="n">
+        <v>67651935549.6634</v>
+      </c>
+      <c r="AS2" s="2" t="n">
+        <v>79319765735.0487</v>
+      </c>
+      <c r="AT2" s="2" t="n">
+        <v>103704495193.904</v>
+      </c>
+      <c r="AU2" s="2" t="n">
+        <v>64705953588.2263</v>
+      </c>
+      <c r="AV2" s="2" t="n">
+        <v>74274785811.3853</v>
+      </c>
+      <c r="AW2" s="2" t="n">
+        <v>52277429982.029</v>
+      </c>
+      <c r="AX2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="n">
+        <v>600479792</v>
+      </c>
+      <c r="AA3" s="2" t="n">
+        <v>656370281.4492</v>
+      </c>
+      <c r="AB3" s="2" t="n">
+        <v>841452263.4247</v>
+      </c>
+      <c r="AC3" s="2" t="n">
+        <v>1101277305.4612</v>
+      </c>
+      <c r="AD3" s="2" t="n">
+        <v>1222363308.256</v>
+      </c>
+      <c r="AE3" s="2" t="n">
+        <v>1689218142.1243</v>
+      </c>
+      <c r="AF3" s="2" t="n">
+        <v>1582550638.2089</v>
+      </c>
+      <c r="AG3" s="2" t="n">
+        <v>1660068401.765</v>
+      </c>
+      <c r="AH3" s="2" t="n">
+        <v>1744751662.3427</v>
+      </c>
+      <c r="AI3" s="2" t="n">
+        <v>1675960357.3446</v>
+      </c>
+      <c r="AJ3" s="2" t="n">
+        <v>1694548308.7933</v>
+      </c>
+      <c r="AK3" s="2" t="n">
+        <v>1758429194.3475</v>
+      </c>
+      <c r="AL3" s="2" t="n">
+        <v>1391187644.8305</v>
+      </c>
+      <c r="AM3" s="2" t="n">
+        <v>1318729027.2788</v>
+      </c>
+      <c r="AN3" s="2" t="n">
+        <v>1521540335.0792</v>
+      </c>
+      <c r="AO3" s="2" t="n">
+        <v>1544560035.7702</v>
+      </c>
+      <c r="AP3" s="2" t="n">
+        <v>1676601800.8415</v>
+      </c>
+      <c r="AQ3" s="2" t="n">
+        <v>1750648807.8739</v>
+      </c>
+      <c r="AR3" s="2" t="n">
+        <v>1892537321.0956</v>
+      </c>
+      <c r="AS3" s="2" t="n">
+        <v>1963223245.4129</v>
+      </c>
+      <c r="AT3" s="2" t="n">
+        <v>1930248875.2409</v>
+      </c>
+      <c r="AU3" s="2" t="n">
+        <v>1945142067.2073</v>
+      </c>
+      <c r="AV3" s="2" t="n">
+        <v>2132661315.8257</v>
+      </c>
+      <c r="AW3" s="2" t="n">
+        <v>829251161.9392</v>
+      </c>
+      <c r="AX3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="N4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="n">
+        <v>16487268</v>
+      </c>
+      <c r="AA4" s="2" t="n">
+        <v>11146809</v>
+      </c>
+      <c r="AB4" s="2" t="n">
+        <v>8694363</v>
+      </c>
+      <c r="AC4" s="2" t="n">
+        <v>1941170.7003</v>
+      </c>
+      <c r="AD4" s="2" t="n">
+        <v>4182207</v>
+      </c>
+      <c r="AE4" s="2" t="n">
+        <v>3062250</v>
+      </c>
+      <c r="AF4" s="2" t="n">
+        <v>4351859.75</v>
+      </c>
+      <c r="AG4" s="2" t="n">
+        <v>3664592.0728</v>
+      </c>
+      <c r="AH4" s="2" t="n">
+        <v>880976.0977</v>
+      </c>
+      <c r="AI4" s="2" t="n">
+        <v>3109070.9192</v>
+      </c>
+      <c r="AJ4" s="2" t="n">
+        <v>240339667.0147</v>
+      </c>
+      <c r="AK4" s="2" t="n">
+        <v>1110377805.2165</v>
+      </c>
+      <c r="AL4" s="2" t="n">
+        <v>2064006447.3532</v>
+      </c>
+      <c r="AM4" s="2" t="n">
+        <v>2593204388.1938</v>
+      </c>
+      <c r="AN4" s="2" t="n">
+        <v>3261933622.709</v>
+      </c>
+      <c r="AO4" s="2" t="n">
+        <v>3953034131.9917</v>
+      </c>
+      <c r="AP4" s="2" t="n">
+        <v>4732280611.7867</v>
+      </c>
+      <c r="AQ4" s="2" t="n">
+        <v>5856950269.2099</v>
+      </c>
+      <c r="AR4" s="2" t="n">
+        <v>7334131891.9943</v>
+      </c>
+      <c r="AS4" s="2" t="n">
+        <v>5044390678.1495</v>
+      </c>
+      <c r="AT4" s="2" t="n">
+        <v>5930103246.1628</v>
+      </c>
+      <c r="AU4" s="2" t="n">
+        <v>7026470054.8162</v>
+      </c>
+      <c r="AV4" s="2" t="n">
+        <v>8617374531.2627</v>
+      </c>
+      <c r="AW4" s="2" t="n">
+        <v>3501052372.4988</v>
+      </c>
+      <c r="AX4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2" t="n">
+        <v>1488993837</v>
+      </c>
+      <c r="AA5" s="2" t="n">
+        <v>1579451964.2822</v>
+      </c>
+      <c r="AB5" s="2" t="n">
+        <v>2317490424.2247</v>
+      </c>
+      <c r="AC5" s="2" t="n">
+        <v>2188113376.9121</v>
+      </c>
+      <c r="AD5" s="2" t="n">
+        <v>2464196668.5194</v>
+      </c>
+      <c r="AE5" s="2" t="n">
+        <v>2487195906.6686</v>
+      </c>
+      <c r="AF5" s="2" t="n">
+        <v>2739366743.2806</v>
+      </c>
+      <c r="AG5" s="2" t="n">
+        <v>2957226264.9291</v>
+      </c>
+      <c r="AH5" s="2" t="n">
+        <v>2608234555.101</v>
+      </c>
+      <c r="AI5" s="2" t="n">
+        <v>2417141160.6679</v>
+      </c>
+      <c r="AJ5" s="2" t="n">
+        <v>2000507429.6483</v>
+      </c>
+      <c r="AK5" s="2" t="n">
+        <v>1915010398.5023</v>
+      </c>
+      <c r="AL5" s="2" t="n">
+        <v>1497995502.5304</v>
+      </c>
+      <c r="AM5" s="2" t="n">
+        <v>1180544202.4889</v>
+      </c>
+      <c r="AN5" s="2" t="n">
+        <v>1042419193.8907</v>
+      </c>
+      <c r="AO5" s="2" t="n">
+        <v>965431735.9285</v>
+      </c>
+      <c r="AP5" s="2" t="n">
+        <v>1054843031.0331</v>
+      </c>
+      <c r="AQ5" s="2" t="n">
+        <v>1065291949.6307</v>
+      </c>
+      <c r="AR5" s="2" t="n">
+        <v>1208269675.847</v>
+      </c>
+      <c r="AS5" s="2" t="n">
+        <v>1401905556.9774</v>
+      </c>
+      <c r="AT5" s="2" t="n">
+        <v>1474076768.7371</v>
+      </c>
+      <c r="AU5" s="2" t="n">
+        <v>1586007492.9405</v>
+      </c>
+      <c r="AV5" s="2" t="n">
+        <v>1528965912.55</v>
+      </c>
+      <c r="AW5" s="2" t="n">
+        <v>545520483.0375</v>
+      </c>
+      <c r="AX5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="N6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="n">
+        <v>1256853160</v>
+      </c>
+      <c r="AA6" s="2" t="n">
+        <v>1723664398</v>
+      </c>
+      <c r="AB6" s="2" t="n">
+        <v>2477389942.8438</v>
+      </c>
+      <c r="AC6" s="2" t="n">
+        <v>3245367049.981</v>
+      </c>
+      <c r="AD6" s="2" t="n">
+        <v>3451017394.1973</v>
+      </c>
+      <c r="AE6" s="2" t="n">
+        <v>4894191722.7048</v>
+      </c>
+      <c r="AF6" s="2" t="n">
+        <v>6141228266.3682</v>
+      </c>
+      <c r="AG6" s="2" t="n">
+        <v>7457292922.0604</v>
+      </c>
+      <c r="AH6" s="2" t="n">
+        <v>9012208884.6387</v>
+      </c>
+      <c r="AI6" s="2" t="n">
+        <v>10639522071.7194</v>
+      </c>
+      <c r="AJ6" s="2" t="n">
+        <v>11962292325.4404</v>
+      </c>
+      <c r="AK6" s="2" t="n">
+        <v>12462183529.3221</v>
+      </c>
+      <c r="AL6" s="2" t="n">
+        <v>11780161587.3851</v>
+      </c>
+      <c r="AM6" s="2" t="n">
+        <v>10462799981.9558</v>
+      </c>
+      <c r="AN6" s="2" t="n">
+        <v>12304294494.2867</v>
+      </c>
+      <c r="AO6" s="2" t="n">
+        <v>11140246342.4732</v>
+      </c>
+      <c r="AP6" s="2" t="n">
+        <v>11846369088.0075</v>
+      </c>
+      <c r="AQ6" s="2" t="n">
+        <v>11607597967.4547</v>
+      </c>
+      <c r="AR6" s="2" t="n">
+        <v>14152219451.9582</v>
+      </c>
+      <c r="AS6" s="2" t="n">
+        <v>15236683692.8041</v>
+      </c>
+      <c r="AT6" s="2" t="n">
+        <v>16655019237.0216</v>
+      </c>
+      <c r="AU6" s="2" t="n">
+        <v>16399758166.4921</v>
+      </c>
+      <c r="AV6" s="2" t="n">
+        <v>16673271887.5319</v>
+      </c>
+      <c r="AW6" s="2" t="n">
+        <v>7448186593.0997</v>
+      </c>
+      <c r="AX6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="N7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2" t="n">
+        <v>10480888998.9896</v>
+      </c>
+      <c r="AA7" s="2" t="n">
+        <v>10825263907.219</v>
+      </c>
+      <c r="AB7" s="2" t="n">
+        <v>13057319166.3883</v>
+      </c>
+      <c r="AC7" s="2" t="n">
+        <v>14789408947.7599</v>
+      </c>
+      <c r="AD7" s="2" t="n">
+        <v>16529930744.8791</v>
+      </c>
+      <c r="AE7" s="2" t="n">
+        <v>17641035489.7443</v>
+      </c>
+      <c r="AF7" s="2" t="n">
+        <v>20596802258.3182</v>
+      </c>
+      <c r="AG7" s="2" t="n">
+        <v>25039602974.6801</v>
+      </c>
+      <c r="AH7" s="2" t="n">
+        <v>29140239707.8975</v>
+      </c>
+      <c r="AI7" s="2" t="n">
+        <v>22636138419.9464</v>
+      </c>
+      <c r="AJ7" s="2" t="n">
+        <v>22760548689.5869</v>
+      </c>
+      <c r="AK7" s="2" t="n">
+        <v>22608676465.5327</v>
+      </c>
+      <c r="AL7" s="2" t="n">
+        <v>19450175578.8074</v>
+      </c>
+      <c r="AM7" s="2" t="n">
+        <v>15056757524.5757</v>
+      </c>
+      <c r="AN7" s="2" t="n">
+        <v>13984093543.4614</v>
+      </c>
+      <c r="AO7" s="2" t="n">
+        <v>13215178222.5736</v>
+      </c>
+      <c r="AP7" s="2" t="n">
+        <v>14174080804.8399</v>
+      </c>
+      <c r="AQ7" s="2" t="n">
+        <v>14638683688.5154</v>
+      </c>
+      <c r="AR7" s="2" t="n">
+        <v>16007688476.1106</v>
+      </c>
+      <c r="AS7" s="2" t="n">
+        <v>19030766197.7843</v>
+      </c>
+      <c r="AT7" s="2" t="n">
+        <v>20608354746.9353</v>
+      </c>
+      <c r="AU7" s="2" t="n">
+        <v>19992195522.4055</v>
+      </c>
+      <c r="AV7" s="2" t="n">
+        <v>20643216645.7452</v>
+      </c>
+      <c r="AW7" s="2" t="n">
+        <v>10124475689.8586</v>
+      </c>
+      <c r="AX7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="N8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2" t="n">
+        <v>247041481</v>
+      </c>
+      <c r="AA8" s="2" t="n">
+        <v>70937972</v>
+      </c>
+      <c r="AB8" s="2" t="n">
+        <v>36382919</v>
+      </c>
+      <c r="AC8" s="2" t="n">
+        <v>5593105</v>
+      </c>
+      <c r="AD8" s="2" t="n">
+        <v>14308786</v>
+      </c>
+      <c r="AE8" s="2" t="n">
+        <v>19985979</v>
+      </c>
+      <c r="AF8" s="2" t="n">
+        <v>10568670.6299</v>
+      </c>
+      <c r="AG8" s="2" t="n">
+        <v>1606605.7345</v>
+      </c>
+      <c r="AH8" s="2" t="n">
+        <v>2051059.2507</v>
+      </c>
+      <c r="AI8" s="2" t="n">
+        <v>2256587.7115</v>
+      </c>
+      <c r="AJ8" s="2" t="n">
+        <v>184473982.869</v>
+      </c>
+      <c r="AK8" s="2" t="n">
+        <v>189695451.7651</v>
+      </c>
+      <c r="AL8" s="2" t="n">
+        <v>199736144.9853</v>
+      </c>
+      <c r="AM8" s="2" t="n">
+        <v>137122590.1291</v>
+      </c>
+      <c r="AN8" s="2" t="n">
+        <v>137726328.8782</v>
+      </c>
+      <c r="AO8" s="2" t="n">
+        <v>100785073.0274</v>
+      </c>
+      <c r="AP8" s="2" t="n">
+        <v>16006550.9706</v>
+      </c>
+      <c r="AQ8" s="2" t="n">
+        <v>41693024.4511</v>
+      </c>
+      <c r="AR8" s="2" t="n">
+        <v>6549</v>
+      </c>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2" t="n">
+        <v>10156</v>
+      </c>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9" s="2" t="n">
+        <v>43985137405</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>41939949844</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>40644252613</v>
+      </c>
+      <c r="S9" s="2" t="n">
+        <v>37382740962</v>
+      </c>
+      <c r="T9" s="2" t="n">
+        <v>40131281740</v>
+      </c>
+      <c r="U9" s="2" t="n">
+        <v>38631559907</v>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>35472291538</v>
+      </c>
+      <c r="W9" s="2" t="n">
+        <v>36315651254</v>
+      </c>
+      <c r="X9" s="2" t="n">
+        <v>37912327660</v>
+      </c>
+      <c r="Y9" s="2" t="n">
+        <v>37471174500</v>
+      </c>
+      <c r="Z9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2" t="n">
+        <v>40775</v>
+      </c>
+      <c r="AD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2"/>
+    </row>
+    <row r="13">
+      <c r="N13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s">
+        <v>5</v>
+      </c>
+      <c r="U13" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="N14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O14" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="n">
+        <v>42632379133.2046</v>
+      </c>
+      <c r="AA14" s="2" t="n">
+        <v>43132029304.2167</v>
+      </c>
+      <c r="AB14" s="2" t="n">
+        <v>45122701413.8409</v>
+      </c>
+      <c r="AC14" s="2" t="n">
+        <v>54138602851.7214</v>
+      </c>
+      <c r="AD14" s="2" t="n">
+        <v>55236561268.6113</v>
+      </c>
+      <c r="AE14" s="2" t="n">
+        <v>56083272628.4563</v>
+      </c>
+      <c r="AF14" s="2" t="n">
+        <v>61355746522.5791</v>
+      </c>
+      <c r="AG14" s="2" t="n">
+        <v>66228042047.8395</v>
+      </c>
+      <c r="AH14" s="2" t="n">
+        <v>71875189108.9242</v>
+      </c>
+      <c r="AI14" s="2" t="n">
+        <v>77038825219.6145</v>
+      </c>
+      <c r="AJ14" s="2" t="n">
+        <v>64426216915.0818</v>
+      </c>
+      <c r="AK14" s="2" t="n">
+        <v>82078290987.5106</v>
+      </c>
+      <c r="AL14" s="2" t="n">
+        <v>73327807505.0709</v>
+      </c>
+      <c r="AM14" s="2" t="n">
+        <v>78218356473.0091</v>
+      </c>
+      <c r="AN14" s="2" t="n">
+        <v>62936074781.0395</v>
+      </c>
+      <c r="AO14" s="2" t="n">
+        <v>64729299017.8152</v>
+      </c>
+      <c r="AP14" s="2" t="n">
+        <v>70750122481.4862</v>
+      </c>
+      <c r="AQ14" s="2" t="n">
+        <v>87076078309.2733</v>
+      </c>
+      <c r="AR14" s="2" t="n">
+        <v>77252523058.4943</v>
+      </c>
+      <c r="AS14" s="2" t="n">
+        <v>88836162404.4852</v>
+      </c>
+      <c r="AT14" s="2" t="n">
+        <v>114617404659.428</v>
+      </c>
+      <c r="AU14" s="2" t="n">
+        <v>69189273489.6376</v>
+      </c>
+      <c r="AV14" s="2" t="n">
+        <v>74274785811.3853</v>
+      </c>
+      <c r="AW14" s="2" t="n">
+        <v>49862127997.9026</v>
+      </c>
+      <c r="AX14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="N15" t="s">
+        <v>53</v>
+      </c>
+      <c r="O15" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2" t="n">
+        <v>970213244.213542</v>
+      </c>
+      <c r="AA15" s="2" t="n">
+        <v>1035409114.23068</v>
+      </c>
+      <c r="AB15" s="2" t="n">
+        <v>1306746621.44121</v>
+      </c>
+      <c r="AC15" s="2" t="n">
+        <v>1678168576.26955</v>
+      </c>
+      <c r="AD15" s="2" t="n">
+        <v>1818240153.17467</v>
+      </c>
+      <c r="AE15" s="2" t="n">
+        <v>2438647720.55851</v>
+      </c>
+      <c r="AF15" s="2" t="n">
+        <v>2212619093.67507</v>
+      </c>
+      <c r="AG15" s="2" t="n">
+        <v>2259049209.18328</v>
+      </c>
+      <c r="AH15" s="2" t="n">
+        <v>2325781483.51901</v>
+      </c>
+      <c r="AI15" s="2" t="n">
+        <v>2211607334.48862</v>
+      </c>
+      <c r="AJ15" s="2" t="n">
+        <v>2216855063.81177</v>
+      </c>
+      <c r="AK15" s="2" t="n">
+        <v>2254979514.69312</v>
+      </c>
+      <c r="AL15" s="2" t="n">
+        <v>1751922600.80078</v>
+      </c>
+      <c r="AM15" s="2" t="n">
+        <v>1630831251.41306</v>
+      </c>
+      <c r="AN15" s="2" t="n">
+        <v>1845930389.55887</v>
+      </c>
+      <c r="AO15" s="2" t="n">
+        <v>1852618777.10674</v>
+      </c>
+      <c r="AP15" s="2" t="n">
+        <v>1994468778.53589</v>
+      </c>
+      <c r="AQ15" s="2" t="n">
+        <v>2046025099.63354</v>
+      </c>
+      <c r="AR15" s="2" t="n">
+        <v>2161110127.13998</v>
+      </c>
+      <c r="AS15" s="2" t="n">
+        <v>2198761146.72761</v>
+      </c>
+      <c r="AT15" s="2" t="n">
+        <v>2133370554.6054</v>
+      </c>
+      <c r="AU15" s="2" t="n">
+        <v>2079916282.83017</v>
+      </c>
+      <c r="AV15" s="2" t="n">
+        <v>2132661315.8257</v>
+      </c>
+      <c r="AW15" s="2" t="n">
+        <v>790938414.402465</v>
+      </c>
+      <c r="AX15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="N16" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2" t="n">
+        <v>26638974.3461977</v>
+      </c>
+      <c r="AA16" s="2" t="n">
+        <v>17583836.379225</v>
+      </c>
+      <c r="AB16" s="2" t="n">
+        <v>13502048.7431966</v>
+      </c>
+      <c r="AC16" s="2" t="n">
+        <v>2958030.3292043</v>
+      </c>
+      <c r="AD16" s="2" t="n">
+        <v>6220946.46078465</v>
+      </c>
+      <c r="AE16" s="2" t="n">
+        <v>4420831.62384766</v>
+      </c>
+      <c r="AF16" s="2" t="n">
+        <v>6084486.4886876</v>
+      </c>
+      <c r="AG16" s="2" t="n">
+        <v>4986838.98521072</v>
+      </c>
+      <c r="AH16" s="2" t="n">
+        <v>1174355.03268261</v>
+      </c>
+      <c r="AI16" s="2" t="n">
+        <v>4102748.62302974</v>
+      </c>
+      <c r="AJ16" s="2" t="n">
+        <v>314419013.663754</v>
+      </c>
+      <c r="AK16" s="2" t="n">
+        <v>1423929500.47797</v>
+      </c>
+      <c r="AL16" s="2" t="n">
+        <v>2599203318.65596</v>
+      </c>
+      <c r="AM16" s="2" t="n">
+        <v>3206935367.37766</v>
+      </c>
+      <c r="AN16" s="2" t="n">
+        <v>3957372843.86154</v>
+      </c>
+      <c r="AO16" s="2" t="n">
+        <v>4741457172.18417</v>
+      </c>
+      <c r="AP16" s="2" t="n">
+        <v>5629473812.29226</v>
+      </c>
+      <c r="AQ16" s="2" t="n">
+        <v>6845157751.92076</v>
+      </c>
+      <c r="AR16" s="2" t="n">
+        <v>8374929534.49056</v>
+      </c>
+      <c r="AS16" s="2" t="n">
+        <v>5649591944.24032</v>
+      </c>
+      <c r="AT16" s="2" t="n">
+        <v>6554132896.23326</v>
+      </c>
+      <c r="AU16" s="2" t="n">
+        <v>7513317265.722</v>
+      </c>
+      <c r="AV16" s="2" t="n">
+        <v>8617374531.2627</v>
+      </c>
+      <c r="AW16" s="2" t="n">
+        <v>3339298079.20754</v>
+      </c>
+      <c r="AX16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="N17" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2" t="n">
+        <v>2405812086.362</v>
+      </c>
+      <c r="AA17" s="2" t="n">
+        <v>2491549367.06853</v>
+      </c>
+      <c r="AB17" s="2" t="n">
+        <v>3598983464.31743</v>
+      </c>
+      <c r="AC17" s="2" t="n">
+        <v>3334331046.53977</v>
+      </c>
+      <c r="AD17" s="2" t="n">
+        <v>3665441606.23879</v>
+      </c>
+      <c r="AE17" s="2" t="n">
+        <v>3590652075.73026</v>
+      </c>
+      <c r="AF17" s="2" t="n">
+        <v>3830003928.10246</v>
+      </c>
+      <c r="AG17" s="2" t="n">
+        <v>4024243608.31235</v>
+      </c>
+      <c r="AH17" s="2" t="n">
+        <v>3476817798.11759</v>
+      </c>
+      <c r="AI17" s="2" t="n">
+        <v>3189673965.73587</v>
+      </c>
+      <c r="AJ17" s="2" t="n">
+        <v>2617119265.7039</v>
+      </c>
+      <c r="AK17" s="2" t="n">
+        <v>2455776572.02705</v>
+      </c>
+      <c r="AL17" s="2" t="n">
+        <v>1886425735.9766</v>
+      </c>
+      <c r="AM17" s="2" t="n">
+        <v>1459942368.19538</v>
+      </c>
+      <c r="AN17" s="2" t="n">
+        <v>1264661359.47829</v>
+      </c>
+      <c r="AO17" s="2" t="n">
+        <v>1157984746.83699</v>
+      </c>
+      <c r="AP17" s="2" t="n">
+        <v>1254830747.88285</v>
+      </c>
+      <c r="AQ17" s="2" t="n">
+        <v>1245032160.40744</v>
+      </c>
+      <c r="AR17" s="2" t="n">
+        <v>1379737035.39831</v>
+      </c>
+      <c r="AS17" s="2" t="n">
+        <v>1570099313.59851</v>
+      </c>
+      <c r="AT17" s="2" t="n">
+        <v>1629195081.5198</v>
+      </c>
+      <c r="AU17" s="2" t="n">
+        <v>1695898137.65826</v>
+      </c>
+      <c r="AV17" s="2" t="n">
+        <v>1528965912.55</v>
+      </c>
+      <c r="AW17" s="2" t="n">
+        <v>520316552.66994</v>
+      </c>
+      <c r="AX17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="N18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2" t="n">
+        <v>2030735418.75934</v>
+      </c>
+      <c r="AA18" s="2" t="n">
+        <v>2719041184.53339</v>
+      </c>
+      <c r="AB18" s="2" t="n">
+        <v>3847301954.63222</v>
+      </c>
+      <c r="AC18" s="2" t="n">
+        <v>4945414724.09432</v>
+      </c>
+      <c r="AD18" s="2" t="n">
+        <v>5133317036.80329</v>
+      </c>
+      <c r="AE18" s="2" t="n">
+        <v>7065522913.18698</v>
+      </c>
+      <c r="AF18" s="2" t="n">
+        <v>8586264851.63354</v>
+      </c>
+      <c r="AG18" s="2" t="n">
+        <v>10148010564.0932</v>
+      </c>
+      <c r="AH18" s="2" t="n">
+        <v>12013416580.6464</v>
+      </c>
+      <c r="AI18" s="2" t="n">
+        <v>14039977106.9466</v>
+      </c>
+      <c r="AJ18" s="2" t="n">
+        <v>15649402368.0761</v>
+      </c>
+      <c r="AK18" s="2" t="n">
+        <v>15981290948.3655</v>
+      </c>
+      <c r="AL18" s="2" t="n">
+        <v>14834757484.1636</v>
+      </c>
+      <c r="AM18" s="2" t="n">
+        <v>12939019946.4003</v>
+      </c>
+      <c r="AN18" s="2" t="n">
+        <v>14927551117.4033</v>
+      </c>
+      <c r="AO18" s="2" t="n">
+        <v>13362141372.1021</v>
+      </c>
+      <c r="AP18" s="2" t="n">
+        <v>14092322502.0902</v>
+      </c>
+      <c r="AQ18" s="2" t="n">
+        <v>13566077148.6832</v>
+      </c>
+      <c r="AR18" s="2" t="n">
+        <v>16160582112.816</v>
+      </c>
+      <c r="AS18" s="2" t="n">
+        <v>17064706312.4346</v>
+      </c>
+      <c r="AT18" s="2" t="n">
+        <v>18407640632.462</v>
+      </c>
+      <c r="AU18" s="2" t="n">
+        <v>17536057967.1884</v>
+      </c>
+      <c r="AV18" s="2" t="n">
+        <v>16673271887.5319</v>
+      </c>
+      <c r="AW18" s="2" t="n">
+        <v>7104068302.23037</v>
+      </c>
+      <c r="AX18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="N19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2" t="n">
+        <v>16934287303.9626</v>
+      </c>
+      <c r="AA19" s="2" t="n">
+        <v>17076606345.9479</v>
+      </c>
+      <c r="AB19" s="2" t="n">
+        <v>20277570632.84</v>
+      </c>
+      <c r="AC19" s="2" t="n">
+        <v>22536668316.5568</v>
+      </c>
+      <c r="AD19" s="2" t="n">
+        <v>24587930287.6139</v>
+      </c>
+      <c r="AE19" s="2" t="n">
+        <v>25467563905.7818</v>
+      </c>
+      <c r="AF19" s="2" t="n">
+        <v>28797105662.9082</v>
+      </c>
+      <c r="AG19" s="2" t="n">
+        <v>34074315996.903</v>
+      </c>
+      <c r="AH19" s="2" t="n">
+        <v>38844399120.3497</v>
+      </c>
+      <c r="AI19" s="2" t="n">
+        <v>29870783956.5919</v>
+      </c>
+      <c r="AJ19" s="2" t="n">
+        <v>29775980629.0655</v>
+      </c>
+      <c r="AK19" s="2" t="n">
+        <v>28992979898.1861</v>
+      </c>
+      <c r="AL19" s="2" t="n">
+        <v>24493606101.7188</v>
+      </c>
+      <c r="AM19" s="2" t="n">
+        <v>18620224631.5121</v>
+      </c>
+      <c r="AN19" s="2" t="n">
+        <v>16965480734.9986</v>
+      </c>
+      <c r="AO19" s="2" t="n">
+        <v>15850913367.5361</v>
+      </c>
+      <c r="AP19" s="2" t="n">
+        <v>16861345142.0064</v>
+      </c>
+      <c r="AQ19" s="2" t="n">
+        <v>17108579469.2729</v>
+      </c>
+      <c r="AR19" s="2" t="n">
+        <v>18279363525.4695</v>
+      </c>
+      <c r="AS19" s="2" t="n">
+        <v>21313984237.8673</v>
+      </c>
+      <c r="AT19" s="2" t="n">
+        <v>22776988895.0135</v>
+      </c>
+      <c r="AU19" s="2" t="n">
+        <v>21377406667.4092</v>
+      </c>
+      <c r="AV19" s="2" t="n">
+        <v>20643216645.7452</v>
+      </c>
+      <c r="AW19" s="2" t="n">
+        <v>9656708505.61942</v>
+      </c>
+      <c r="AX19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="N20" t="s">
+        <v>56</v>
+      </c>
+      <c r="O20" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2" t="n">
+        <v>399152344.39118</v>
+      </c>
+      <c r="AA20" s="2" t="n">
+        <v>111903029.173824</v>
+      </c>
+      <c r="AB20" s="2" t="n">
+        <v>56501430.3817053</v>
+      </c>
+      <c r="AC20" s="2" t="n">
+        <v>8522987.81444998</v>
+      </c>
+      <c r="AD20" s="2" t="n">
+        <v>21284023.3935874</v>
+      </c>
+      <c r="AE20" s="2" t="n">
+        <v>28852852.6399723</v>
+      </c>
+      <c r="AF20" s="2" t="n">
+        <v>14776426.0213156</v>
+      </c>
+      <c r="AG20" s="2" t="n">
+        <v>2186296.30570206</v>
+      </c>
+      <c r="AH20" s="2" t="n">
+        <v>2734094.32977601</v>
+      </c>
+      <c r="AI20" s="2" t="n">
+        <v>2977806.67173868</v>
+      </c>
+      <c r="AJ20" s="2" t="n">
+        <v>241333977.286187</v>
+      </c>
+      <c r="AK20" s="2" t="n">
+        <v>243262201.933292</v>
+      </c>
+      <c r="AL20" s="2" t="n">
+        <v>251527727.331997</v>
+      </c>
+      <c r="AM20" s="2" t="n">
+        <v>169575250.587066</v>
+      </c>
+      <c r="AN20" s="2" t="n">
+        <v>167089369.934722</v>
+      </c>
+      <c r="AO20" s="2" t="n">
+        <v>120886410.640249</v>
+      </c>
+      <c r="AP20" s="2" t="n">
+        <v>19041233.3726958</v>
+      </c>
+      <c r="AQ20" s="2" t="n">
+        <v>48727634.0765257</v>
+      </c>
+      <c r="AR20" s="2" t="n">
+        <v>7478.37839966423</v>
+      </c>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2" t="n">
+        <v>11224.7242469541</v>
+      </c>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21" s="2" t="n">
+        <v>87421849051.3779</v>
+      </c>
+      <c r="Q21" s="2" t="n">
+        <v>80486100094.3418</v>
+      </c>
+      <c r="R21" s="2" t="n">
+        <v>76097691448.0967</v>
+      </c>
+      <c r="S21" s="2" t="n">
+        <v>68384784614.2048</v>
+      </c>
+      <c r="T21" s="2" t="n">
+        <v>71847203684.9646</v>
+      </c>
+      <c r="U21" s="2" t="n">
+        <v>67727583713.1553</v>
+      </c>
+      <c r="V21" s="2" t="n">
+        <v>61041618961.5874</v>
+      </c>
+      <c r="W21" s="2" t="n">
+        <v>61402120840.7608</v>
+      </c>
+      <c r="X21" s="2" t="n">
+        <v>63311224260.2988</v>
+      </c>
+      <c r="Y21" s="2" t="n">
+        <v>61804125829.0054</v>
+      </c>
+      <c r="Z21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="2" t="n">
+        <v>62134.5081371078</v>
+      </c>
+      <c r="AD21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>